--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Acvr2a</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H2">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I2">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J2">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N2">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P2">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q2">
-        <v>6.542536804651886</v>
+        <v>8.625044525245556</v>
       </c>
       <c r="R2">
-        <v>6.542536804651886</v>
+        <v>77.62540072721001</v>
       </c>
       <c r="S2">
-        <v>0.01472635747526563</v>
+        <v>0.01512178110301672</v>
       </c>
       <c r="T2">
-        <v>0.01472635747526563</v>
+        <v>0.01512178110301672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H3">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I3">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J3">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N3">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P3">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q3">
-        <v>17.26733646949023</v>
+        <v>21.52206691382289</v>
       </c>
       <c r="R3">
-        <v>17.26733646949023</v>
+        <v>193.698602224406</v>
       </c>
       <c r="S3">
-        <v>0.0388664178877224</v>
+        <v>0.03773336865713661</v>
       </c>
       <c r="T3">
-        <v>0.0388664178877224</v>
+        <v>0.03773336865713662</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H4">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I4">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J4">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N4">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P4">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q4">
-        <v>3.111485983688229</v>
+        <v>4.680471909395333</v>
       </c>
       <c r="R4">
-        <v>3.111485983688229</v>
+        <v>42.12424718455799</v>
       </c>
       <c r="S4">
-        <v>0.007003530319079252</v>
+        <v>0.008205994933189046</v>
       </c>
       <c r="T4">
-        <v>0.007003530319079252</v>
+        <v>0.008205994933189046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H5">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I5">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J5">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N5">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P5">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q5">
-        <v>3.767556024340239</v>
+        <v>4.757009625725557</v>
       </c>
       <c r="R5">
-        <v>3.767556024340239</v>
+        <v>42.81308663153001</v>
       </c>
       <c r="S5">
-        <v>0.00848025444550434</v>
+        <v>0.00834018399031017</v>
       </c>
       <c r="T5">
-        <v>0.00848025444550434</v>
+        <v>0.00834018399031017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H6">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I6">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J6">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N6">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P6">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q6">
-        <v>2.480651756241412</v>
+        <v>3.114979518476111</v>
       </c>
       <c r="R6">
-        <v>2.480651756241412</v>
+        <v>28.034815666285</v>
       </c>
       <c r="S6">
-        <v>0.005583608564201306</v>
+        <v>0.005461309594507297</v>
       </c>
       <c r="T6">
-        <v>0.005583608564201306</v>
+        <v>0.005461309594507297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.641185522185072</v>
+        <v>0.7911256666666667</v>
       </c>
       <c r="H7">
-        <v>0.641185522185072</v>
+        <v>2.373377</v>
       </c>
       <c r="I7">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="J7">
-        <v>0.09332486456134265</v>
+        <v>0.09841665988682348</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N7">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P7">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q7">
-        <v>8.292237906040061</v>
+        <v>13.43456063405067</v>
       </c>
       <c r="R7">
-        <v>8.292237906040061</v>
+        <v>120.911045706456</v>
       </c>
       <c r="S7">
-        <v>0.01866469586956973</v>
+        <v>0.02355402160866363</v>
       </c>
       <c r="T7">
-        <v>0.01866469586956973</v>
+        <v>0.02355402160866363</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H8">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I8">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J8">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N8">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P8">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q8">
-        <v>28.77660105700006</v>
+        <v>30.85362118941667</v>
       </c>
       <c r="R8">
-        <v>28.77660105700006</v>
+        <v>277.6825907047501</v>
       </c>
       <c r="S8">
-        <v>0.06477220178374489</v>
+        <v>0.05409383157340562</v>
       </c>
       <c r="T8">
-        <v>0.06477220178374489</v>
+        <v>0.05409383157340564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H9">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I9">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J9">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N9">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P9">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q9">
-        <v>75.94840774089415</v>
+        <v>76.98901702231667</v>
       </c>
       <c r="R9">
-        <v>75.94840774089415</v>
+        <v>692.9011532008501</v>
       </c>
       <c r="S9">
-        <v>0.1709495010061542</v>
+        <v>0.1349802959671974</v>
       </c>
       <c r="T9">
-        <v>0.1709495010061542</v>
+        <v>0.1349802959671975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H10">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I10">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J10">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N10">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P10">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q10">
-        <v>13.68551580533411</v>
+        <v>16.74304484545</v>
       </c>
       <c r="R10">
-        <v>13.68551580533411</v>
+        <v>150.68740360905</v>
       </c>
       <c r="S10">
-        <v>0.03080422839034703</v>
+        <v>0.0293545915513612</v>
       </c>
       <c r="T10">
-        <v>0.03080422839034703</v>
+        <v>0.02935459155136121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H11">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I11">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J11">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N11">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P11">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q11">
-        <v>16.57116496390957</v>
+        <v>17.01683655741667</v>
       </c>
       <c r="R11">
-        <v>16.57116496390957</v>
+        <v>153.15152901675</v>
       </c>
       <c r="S11">
-        <v>0.03729943083646345</v>
+        <v>0.02983461438765633</v>
       </c>
       <c r="T11">
-        <v>0.03729943083646345</v>
+        <v>0.02983461438765634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H12">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I12">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J12">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N12">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P12">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q12">
-        <v>10.91086348951825</v>
+        <v>11.14294515170833</v>
       </c>
       <c r="R12">
-        <v>10.91086348951825</v>
+        <v>100.286506365375</v>
       </c>
       <c r="S12">
-        <v>0.02455886468933959</v>
+        <v>0.01953626754434147</v>
       </c>
       <c r="T12">
-        <v>0.02455886468933959</v>
+        <v>0.01953626754434148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.82018130372991</v>
+        <v>2.830025</v>
       </c>
       <c r="H13">
-        <v>2.82018130372991</v>
+        <v>8.490075000000001</v>
       </c>
       <c r="I13">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="J13">
-        <v>0.4104787602067167</v>
+        <v>0.35205735274616</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9326655377078</v>
+        <v>16.981576</v>
       </c>
       <c r="N13">
-        <v>12.9326655377078</v>
+        <v>50.944728</v>
       </c>
       <c r="O13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300346</v>
       </c>
       <c r="P13">
-        <v>0.1999970314160101</v>
+        <v>0.2393296179300347</v>
       </c>
       <c r="Q13">
-        <v>36.47246155683566</v>
+        <v>48.05828461940001</v>
       </c>
       <c r="R13">
-        <v>36.47246155683566</v>
+        <v>432.5245615746001</v>
       </c>
       <c r="S13">
-        <v>0.0820945335006676</v>
+        <v>0.08425775172219789</v>
       </c>
       <c r="T13">
-        <v>0.0820945335006676</v>
+        <v>0.08425775172219792</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H14">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I14">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J14">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.203812435371</v>
+        <v>10.90224333333333</v>
       </c>
       <c r="N14">
-        <v>10.203812435371</v>
+        <v>32.70673</v>
       </c>
       <c r="O14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="P14">
-        <v>0.1577967194968277</v>
+        <v>0.1536506229779223</v>
       </c>
       <c r="Q14">
-        <v>34.7858318632327</v>
+        <v>4.306684111317778</v>
       </c>
       <c r="R14">
-        <v>34.7858318632327</v>
+        <v>38.76015700186</v>
       </c>
       <c r="S14">
-        <v>0.07829816023781723</v>
+        <v>0.007550654865672526</v>
       </c>
       <c r="T14">
-        <v>0.07829816023781723</v>
+        <v>0.007550654865672528</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H15">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I15">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J15">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.9303280751654</v>
+        <v>27.20435933333333</v>
       </c>
       <c r="N15">
-        <v>26.9303280751654</v>
+        <v>81.613078</v>
       </c>
       <c r="O15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="P15">
-        <v>0.4164636945406485</v>
+        <v>0.3834042803375869</v>
       </c>
       <c r="Q15">
-        <v>91.80822073885345</v>
+        <v>10.74646552248844</v>
       </c>
       <c r="R15">
-        <v>91.80822073885345</v>
+        <v>96.718189702396</v>
       </c>
       <c r="S15">
-        <v>0.206647775646772</v>
+        <v>0.01884114322964146</v>
       </c>
       <c r="T15">
-        <v>0.206647775646772</v>
+        <v>0.01884114322964147</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H16">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I16">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J16">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.85270779833692</v>
+        <v>5.916218</v>
       </c>
       <c r="N16">
-        <v>4.85270779833692</v>
+        <v>17.748654</v>
       </c>
       <c r="O16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="P16">
-        <v>0.07504463416044729</v>
+        <v>0.08338014054353927</v>
       </c>
       <c r="Q16">
-        <v>16.54337323657485</v>
+        <v>2.337067819958667</v>
       </c>
       <c r="R16">
-        <v>16.54337323657485</v>
+        <v>21.033610379628</v>
       </c>
       <c r="S16">
-        <v>0.03723687545102102</v>
+        <v>0.004097442963091637</v>
       </c>
       <c r="T16">
-        <v>0.03723687545102102</v>
+        <v>0.004097442963091637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H17">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I17">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J17">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.87592185721993</v>
+        <v>6.012963333333334</v>
       </c>
       <c r="N17">
-        <v>5.87592185721993</v>
+        <v>18.03889</v>
       </c>
       <c r="O17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="P17">
-        <v>0.09086811414475987</v>
+        <v>0.08474361962599786</v>
       </c>
       <c r="Q17">
-        <v>20.03161377782762</v>
+        <v>2.375284870997778</v>
       </c>
       <c r="R17">
-        <v>20.03161377782762</v>
+        <v>21.37756383898</v>
       </c>
       <c r="S17">
-        <v>0.04508842886279209</v>
+        <v>0.004164446661278321</v>
       </c>
       <c r="T17">
-        <v>0.04508842886279209</v>
+        <v>0.004164446661278321</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.40910145923982</v>
+        <v>0.3950273333333333</v>
       </c>
       <c r="H18">
-        <v>3.40910145923982</v>
+        <v>1.185082</v>
       </c>
       <c r="I18">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="J18">
-        <v>0.4961963752319407</v>
+        <v>0.0491417133190372</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.86885179158084</v>
+        <v>3.937401666666666</v>
       </c>
       <c r="N18">
-        <v>3.86885179158084</v>
+        <v>11.812205</v>
       </c>
       <c r="O18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="P18">
-        <v>0.05982980624130654</v>
+        <v>0.05549171858491902</v>
       </c>
       <c r="Q18">
-        <v>13.18930828826083</v>
+        <v>1.555381280645555</v>
       </c>
       <c r="R18">
-        <v>13.18930828826083</v>
+        <v>13.99843152581</v>
       </c>
       <c r="S18">
-        <v>0.02968733298776565</v>
+        <v>0.002726958126280779</v>
       </c>
       <c r="T18">
-        <v>0.02968733298776565</v>
+        <v>0.002726958126280779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3950273333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.185082</v>
+      </c>
+      <c r="I19">
+        <v>0.0491417133190372</v>
+      </c>
+      <c r="J19">
+        <v>0.0491417133190372</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.981576</v>
+      </c>
+      <c r="N19">
+        <v>50.944728</v>
+      </c>
+      <c r="O19">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P19">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q19">
+        <v>6.708186683077334</v>
+      </c>
+      <c r="R19">
+        <v>60.37368014769601</v>
+      </c>
+      <c r="S19">
+        <v>0.01176106747307247</v>
+      </c>
+      <c r="T19">
+        <v>0.01176106747307247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.74674</v>
+      </c>
+      <c r="I20">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J20">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N20">
+        <v>32.70673</v>
+      </c>
+      <c r="O20">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P20">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q20">
+        <v>2.713713728911111</v>
+      </c>
+      <c r="R20">
+        <v>24.4234235602</v>
+      </c>
+      <c r="S20">
+        <v>0.004757793987582548</v>
+      </c>
+      <c r="T20">
+        <v>0.004757793987582549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.74674</v>
+      </c>
+      <c r="I21">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J21">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N21">
+        <v>81.613078</v>
+      </c>
+      <c r="O21">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P21">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q21">
+        <v>6.771527762857778</v>
+      </c>
+      <c r="R21">
+        <v>60.94374986572</v>
+      </c>
+      <c r="S21">
+        <v>0.01187211964682821</v>
+      </c>
+      <c r="T21">
+        <v>0.01187211964682821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.74674</v>
+      </c>
+      <c r="I22">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J22">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.916218</v>
+      </c>
+      <c r="N22">
+        <v>17.748654</v>
+      </c>
+      <c r="O22">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P22">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q22">
+        <v>1.472625543106667</v>
+      </c>
+      <c r="R22">
+        <v>13.25362988796</v>
+      </c>
+      <c r="S22">
+        <v>0.002581867379859831</v>
+      </c>
+      <c r="T22">
+        <v>0.002581867379859832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.74674</v>
+      </c>
+      <c r="I23">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J23">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.03889</v>
+      </c>
+      <c r="O23">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P23">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q23">
+        <v>1.496706746511111</v>
+      </c>
+      <c r="R23">
+        <v>13.4703607186</v>
+      </c>
+      <c r="S23">
+        <v>0.002624087531363208</v>
+      </c>
+      <c r="T23">
+        <v>0.002624087531363208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.74674</v>
+      </c>
+      <c r="I24">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J24">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N24">
+        <v>11.812205</v>
+      </c>
+      <c r="O24">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P24">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q24">
+        <v>0.9800717735222221</v>
+      </c>
+      <c r="R24">
+        <v>8.820645961699999</v>
+      </c>
+      <c r="S24">
+        <v>0.001718301949754455</v>
+      </c>
+      <c r="T24">
+        <v>0.001718301949754455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2489133333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.74674</v>
+      </c>
+      <c r="I25">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="J25">
+        <v>0.03096501592620412</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.981576</v>
+      </c>
+      <c r="N25">
+        <v>50.944728</v>
+      </c>
+      <c r="O25">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P25">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q25">
+        <v>4.226940687413333</v>
+      </c>
+      <c r="R25">
+        <v>38.04246618672</v>
+      </c>
+      <c r="S25">
+        <v>0.007410845430815869</v>
+      </c>
+      <c r="T25">
+        <v>0.007410845430815871</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H26">
+        <v>11.320328</v>
+      </c>
+      <c r="I26">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J26">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.90224333333333</v>
+      </c>
+      <c r="N26">
+        <v>32.70673</v>
+      </c>
+      <c r="O26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="P26">
+        <v>0.1536506229779223</v>
+      </c>
+      <c r="Q26">
+        <v>41.13899015638222</v>
+      </c>
+      <c r="R26">
+        <v>370.25091140744</v>
+      </c>
+      <c r="S26">
+        <v>0.07212656144824486</v>
+      </c>
+      <c r="T26">
+        <v>0.07212656144824489</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H27">
+        <v>11.320328</v>
+      </c>
+      <c r="I27">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J27">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.20435933333333</v>
+      </c>
+      <c r="N27">
+        <v>81.613078</v>
+      </c>
+      <c r="O27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="P27">
+        <v>0.3834042803375869</v>
+      </c>
+      <c r="Q27">
+        <v>102.6540902277315</v>
+      </c>
+      <c r="R27">
+        <v>923.886812049584</v>
+      </c>
+      <c r="S27">
+        <v>0.1799773528367831</v>
+      </c>
+      <c r="T27">
+        <v>0.1799773528367832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.40910145923982</v>
-      </c>
-      <c r="H19">
-        <v>3.40910145923982</v>
-      </c>
-      <c r="I19">
-        <v>0.4961963752319407</v>
-      </c>
-      <c r="J19">
-        <v>0.4961963752319407</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="N19">
-        <v>12.9326655377078</v>
-      </c>
-      <c r="O19">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="P19">
-        <v>0.1999970314160101</v>
-      </c>
-      <c r="Q19">
-        <v>44.08876895646019</v>
-      </c>
-      <c r="R19">
-        <v>44.08876895646019</v>
-      </c>
-      <c r="S19">
-        <v>0.09923780204577279</v>
-      </c>
-      <c r="T19">
-        <v>0.09923780204577279</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H28">
+        <v>11.320328</v>
+      </c>
+      <c r="I28">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J28">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.916218</v>
+      </c>
+      <c r="N28">
+        <v>17.748654</v>
+      </c>
+      <c r="O28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="P28">
+        <v>0.08338014054353927</v>
+      </c>
+      <c r="Q28">
+        <v>22.32450942650133</v>
+      </c>
+      <c r="R28">
+        <v>200.920584838512</v>
+      </c>
+      <c r="S28">
+        <v>0.03914024371603755</v>
+      </c>
+      <c r="T28">
+        <v>0.03914024371603756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H29">
+        <v>11.320328</v>
+      </c>
+      <c r="I29">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J29">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.012963333333334</v>
+      </c>
+      <c r="N29">
+        <v>18.03889</v>
+      </c>
+      <c r="O29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="P29">
+        <v>0.08474361962599786</v>
+      </c>
+      <c r="Q29">
+        <v>22.68957239510222</v>
+      </c>
+      <c r="R29">
+        <v>204.20615155592</v>
+      </c>
+      <c r="S29">
+        <v>0.03978028705538982</v>
+      </c>
+      <c r="T29">
+        <v>0.03978028705538983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H30">
+        <v>11.320328</v>
+      </c>
+      <c r="I30">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J30">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.937401666666666</v>
+      </c>
+      <c r="N30">
+        <v>11.812205</v>
+      </c>
+      <c r="O30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="P30">
+        <v>0.05549171858491902</v>
+      </c>
+      <c r="Q30">
+        <v>14.85755944480444</v>
+      </c>
+      <c r="R30">
+        <v>133.71803500324</v>
+      </c>
+      <c r="S30">
+        <v>0.02604888137003501</v>
+      </c>
+      <c r="T30">
+        <v>0.02604888137003501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.773442666666667</v>
+      </c>
+      <c r="H31">
+        <v>11.320328</v>
+      </c>
+      <c r="I31">
+        <v>0.4694192581217752</v>
+      </c>
+      <c r="J31">
+        <v>0.4694192581217753</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.981576</v>
+      </c>
+      <c r="N31">
+        <v>50.944728</v>
+      </c>
+      <c r="O31">
+        <v>0.2393296179300346</v>
+      </c>
+      <c r="P31">
+        <v>0.2393296179300347</v>
+      </c>
+      <c r="Q31">
+        <v>64.07900342564267</v>
+      </c>
+      <c r="R31">
+        <v>576.711030830784</v>
+      </c>
+      <c r="S31">
+        <v>0.1123459316952848</v>
+      </c>
+      <c r="T31">
+        <v>0.1123459316952848</v>
       </c>
     </row>
   </sheetData>
